--- a/Solution/SocketPunch/data/SocketPunchTable.xlsx
+++ b/Solution/SocketPunch/data/SocketPunchTable.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7014E712-8A4A-4A83-813A-94BE72B19833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9899C83E-C34C-43B2-B71A-D20B441B8F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="3900" windowWidth="28272" windowHeight="10896" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1128" yWindow="2196" windowWidth="28260" windowHeight="12432" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="recipes" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="102">
   <si>
     <t>tag</t>
   </si>
@@ -94,9 +94,6 @@
   </si>
   <si>
     <t>#ranged</t>
-  </si>
-  <si>
-    <t>#armor</t>
   </si>
   <si>
     <t>BarrelMaker</t>
@@ -384,6 +381,21 @@
     <rPh sb="9" eb="11">
       <t>ユビワ</t>
     </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>73003</t>
+  </si>
+  <si>
+    <t>known,mod_eject</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>#armor</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>break_powder</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -685,11 +697,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="K10" sqref="K10"/>
+      <selection pane="bottomRight" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.44140625" defaultRowHeight="16.2"/>
@@ -791,10 +803,10 @@
     </row>
     <row r="4" spans="1:11" ht="13.5" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>
@@ -810,22 +822,22 @@
         <v>15</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>15</v>
@@ -841,22 +853,22 @@
         <v>15</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>15</v>
@@ -872,22 +884,46 @@
         <v>15</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
+      <c r="A7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+      <c r="G7" s="4">
+        <v>15</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2"/>
@@ -970,7 +1006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EAD1FE0-74BF-48E0-95CB-4626C161581A}">
   <dimension ref="A1:AZ17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="AM4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
@@ -1036,160 +1072,160 @@
   <sheetData>
     <row r="1" spans="1:52" ht="12.75" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="R1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="U1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Y1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AA1" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="AC1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AD1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AE1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AF1" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AH1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AI1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="AK1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AL1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AM1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AN1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AO1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AP1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AQ1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AR1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AS1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AT1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="AU1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AV1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AW1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AX1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AY1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="12.75" customHeight="1">
@@ -1221,7 +1257,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>1</v>
@@ -1230,22 +1266,22 @@
         <v>1</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="O2" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="T2" s="2" t="s">
         <v>1</v>
@@ -1269,46 +1305,46 @@
         <v>1</v>
       </c>
       <c r="AA2" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AC2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AD2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AE2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AF2" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AG2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AH2" t="s">
         <v>2</v>
       </c>
       <c r="AI2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AJ2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AK2" t="s">
         <v>1</v>
       </c>
       <c r="AL2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AN2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AO2" t="s">
         <v>1</v>
@@ -1351,14 +1387,14 @@
       <c r="B3"/>
       <c r="C3"/>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" s="6">
         <v>100</v>
@@ -1373,10 +1409,10 @@
       </c>
       <c r="U3"/>
       <c r="W3" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Y3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Z3"/>
       <c r="AA3" s="15">
@@ -1386,11 +1422,11 @@
         <v>1</v>
       </c>
       <c r="AC3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AD3"/>
       <c r="AE3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF3" s="15">
         <v>1000</v>
@@ -1413,38 +1449,38 @@
     </row>
     <row r="4" spans="1:52">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G4" s="14"/>
       <c r="I4" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N4" s="2"/>
       <c r="U4" s="13"/>
       <c r="V4" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Y4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Z4" s="2"/>
       <c r="AA4" s="12">
@@ -1454,13 +1490,13 @@
         <v>20</v>
       </c>
       <c r="AC4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AF4" s="7">
         <v>50</v>
@@ -1470,16 +1506,16 @@
       <c r="AM4" s="11"/>
       <c r="AN4" s="2"/>
       <c r="AT4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AV4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AY4" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AZ4" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:52">
